--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RECIBO_-_FAZENDA_TERERE.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MS-5007901-F6A103CBA50640A595287F318F086B58</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FAZENDA TERERÉ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.728.427/0001-03, 706.944.941-00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AGROPECUÁRIA 51 LTDA, EQUÍCIO DE FIGUEIREDO ABATH NETO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.339.960/0001-04, 796.085.827-68</t>
+          <t>31.339.960/0001-04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VR AGROPECUARIA, REGINA FATIMA GARCIA FERREIRA</t>
+          <t>VR AGROPECUARIA</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.339.960/0001-04, 796.085.827-68</t>
+          <t>31.339.960/0001-04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VR AGROPECUARIA, REGINA FATIMA GARCIA FERREIRA</t>
+          <t>VR AGROPECUARIA</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.728.427/0001-03, 706.944.941-00</t>
+          <t>17.728.427/0001-03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGROPECUÁRIA 51 LTDA, EQUÍCIO DE FIGUEIREDO ABATH NETO</t>
+          <t>AGROPECUÁRIA 51 LTDA</t>
         </is>
       </c>
     </row>

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Recibo_-Faz_Conquista_1.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MS-5000708-97F1663C8BB34B73B4606FEDC7A7A97C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>836.869.591-00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VANESSA FURLIN ROSSATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Recibo_-Faz_Conquista.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MS-5000708-97F1663C8BB34B73B4606FEDC7A7A97C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>836.869.591-00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VANESSA FURLIN ROSSATO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
